--- a/data/trans_dic/P16A03-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A03-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03061660279149849</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04822873698156369</v>
+        <v>0.04822873698156368</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05399568298717386</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03872753271839689</v>
+        <v>0.03796774366779342</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004350288048560584</v>
+        <v>0.004431416159611607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004619577818454203</v>
+        <v>0.004889027147942825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01148643700383648</v>
+        <v>0.01264836818512607</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02797329350331305</v>
+        <v>0.02614807383926318</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03852362516297647</v>
+        <v>0.04084777552375249</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01458670607973462</v>
+        <v>0.01521366541378415</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03263684337505227</v>
+        <v>0.03372310742772273</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04048965395345829</v>
+        <v>0.03852023753352459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02244109848227229</v>
+        <v>0.02270327246918505</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01213004122473038</v>
+        <v>0.0116631107737016</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02555596079578405</v>
+        <v>0.02545659009220935</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08852750278968194</v>
+        <v>0.08595531315897846</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0298515527626249</v>
+        <v>0.02962436477685862</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02793633079378973</v>
+        <v>0.02777343782788979</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03685783317944825</v>
+        <v>0.03712369539399722</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07531082736796278</v>
+        <v>0.07507464719308111</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09574701996886772</v>
+        <v>0.09946074016738751</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0562101344463975</v>
+        <v>0.05199087722467107</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06764289073847153</v>
+        <v>0.06939199846452911</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07431217239991157</v>
+        <v>0.07254922628176384</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05035885615440225</v>
+        <v>0.05200983962605697</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03416894063666955</v>
+        <v>0.03289053087799858</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04645075754123053</v>
+        <v>0.0454410480480231</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002397458495899692</v>
+        <v>0.002410185306964306</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004327093635163402</v>
+        <v>0.004742865540780346</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005493068108148549</v>
+        <v>0.005616686519870767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006123454046321144</v>
+        <v>0.006235499060293541</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02144870994781383</v>
+        <v>0.01866207159422171</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.050510784604904</v>
+        <v>0.04859753990898067</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02678192664918963</v>
+        <v>0.02892620898434166</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02120709002969116</v>
+        <v>0.02103952883003079</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01395410783581419</v>
+        <v>0.01371031689505773</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02753485773285617</v>
+        <v>0.02890304744616826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01990366344115567</v>
+        <v>0.01938750486107774</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01604883724024234</v>
+        <v>0.0157100739278832</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02976333537915999</v>
+        <v>0.02819239771228237</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03817570633158061</v>
+        <v>0.03953222689044598</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03118376662572508</v>
+        <v>0.03352828413494495</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0272480163906773</v>
+        <v>0.02654526963326131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06157723957773242</v>
+        <v>0.05943914046721915</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1138027732097299</v>
+        <v>0.1118251565963593</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07253462112003613</v>
+        <v>0.07352812407755234</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04725762950792909</v>
+        <v>0.05058980492336477</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03778780736591214</v>
+        <v>0.03983894395329116</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0629935695879405</v>
+        <v>0.0598987644505495</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04800356997605498</v>
+        <v>0.04616154397320781</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03255260502402477</v>
+        <v>0.03303349517704283</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.0571792589441489</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09632216898745086</v>
+        <v>0.09632216898745084</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03754069002479638</v>
@@ -969,7 +969,7 @@
         <v>0.02114908200745326</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04748895826898128</v>
+        <v>0.04748895826898127</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01314900648333634</v>
+        <v>0.01396537835778968</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009406989435920509</v>
+        <v>0.008069654459566367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003668644964946569</v>
+        <v>0.002641819362250289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01552273363677092</v>
+        <v>0.01678530960102572</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04040118237005597</v>
+        <v>0.0433444369399027</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02112491451626009</v>
+        <v>0.02078019624614955</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0248102819723987</v>
+        <v>0.02728158986162091</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06469157376259456</v>
+        <v>0.06658726670798645</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02449454612564569</v>
+        <v>0.02504393284581623</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01515250063893096</v>
+        <v>0.01579054506251847</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01166201993469918</v>
+        <v>0.01173106807336991</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0338189673295298</v>
+        <v>0.03415694198955364</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04036960116036765</v>
+        <v>0.04215018940567485</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03556124708541991</v>
+        <v>0.03315791356815765</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02147698902409511</v>
+        <v>0.02197820749753041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04794232798886634</v>
+        <v>0.05169483449136483</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1284759333718525</v>
+        <v>0.1260879450165621</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07601344069481553</v>
+        <v>0.07402006606620093</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1011183903957463</v>
+        <v>0.1033351558277675</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1337871311323214</v>
+        <v>0.1379682129491393</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05310433576900944</v>
+        <v>0.05261091921268227</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03876477901389854</v>
+        <v>0.03915381776496567</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03398202404646879</v>
+        <v>0.03574423059586831</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06386100606759235</v>
+        <v>0.06316455902143962</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.02609222786882559</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03580903299180341</v>
+        <v>0.03580903299180342</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009088095266318281</v>
+        <v>0.009360132940526983</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005595724876393323</v>
+        <v>0.006038649230885316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009842092291270662</v>
+        <v>0.009579896074206073</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01717009367508272</v>
+        <v>0.01751418910690561</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03200604078700619</v>
+        <v>0.03150320647236746</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04335481762060003</v>
+        <v>0.04285692298550132</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02721359091123493</v>
+        <v>0.02785770954860437</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0380122253389519</v>
+        <v>0.03800048331329037</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01951212314927839</v>
+        <v>0.02000835108387152</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02368098621787779</v>
+        <v>0.02307981453164838</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01870827390094508</v>
+        <v>0.01926251035048003</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02896267024305849</v>
+        <v>0.02913369522797895</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02437754688466616</v>
+        <v>0.02411955524859462</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01731200134229855</v>
+        <v>0.01850308365914154</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02553482696059726</v>
+        <v>0.02557118674534889</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03701292125676873</v>
+        <v>0.03650739195351816</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06288829025617164</v>
+        <v>0.06384113952152698</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07785098170616034</v>
+        <v>0.07970002072601871</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05627051402305615</v>
+        <v>0.05627436367445048</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06123137459136829</v>
+        <v>0.06294162141195539</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03434640463228669</v>
+        <v>0.03446788598887147</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04078438706909195</v>
+        <v>0.03850162451673339</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03428238984842652</v>
+        <v>0.03401582995549923</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04358656539357764</v>
+        <v>0.04422960476740458</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.0273523192573086</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04639179924518558</v>
+        <v>0.04639179924518557</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0107914977811217</v>
+        <v>0.009738456713782479</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.005802342834924377</v>
+        <v>0.005872283793735066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005472151716192269</v>
+        <v>0.005452781484062767</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01523747925679705</v>
+        <v>0.0153255359761417</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0227089320739556</v>
+        <v>0.0226025109206045</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05160527412712181</v>
+        <v>0.05120586043956913</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02684653209242908</v>
+        <v>0.02658679992499931</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0489184439610808</v>
+        <v>0.04975928321143428</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02093226876343704</v>
+        <v>0.02120269068392455</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03568628659245342</v>
+        <v>0.03550967315597057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01988996313026516</v>
+        <v>0.01955693285616041</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03797034543345876</v>
+        <v>0.03827023052970911</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04483744706990209</v>
+        <v>0.04382572221760711</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02782710494131414</v>
+        <v>0.02685241469458262</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0233282051902635</v>
+        <v>0.02319739406066869</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04036846585884182</v>
+        <v>0.04192157371626547</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05410717538057316</v>
+        <v>0.05746997803638861</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08961925984049848</v>
+        <v>0.0911335745765539</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05720636691103854</v>
+        <v>0.05631198683123518</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07355951399303194</v>
+        <v>0.07423975992507825</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0447553002706095</v>
+        <v>0.04548299959853216</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.06041679008074354</v>
+        <v>0.05928161292277215</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03751658530977276</v>
+        <v>0.03862462230993092</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05542215844313731</v>
+        <v>0.056839667291804</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.04367279062614979</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.05032847206006139</v>
+        <v>0.05032847206006138</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05619037798755147</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003518432196924714</v>
+        <v>0.003535353415441588</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
@@ -1400,28 +1400,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05452181337296391</v>
+        <v>0.05590077026070545</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03859420752711217</v>
+        <v>0.03767744030970133</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03189328605522754</v>
+        <v>0.03225734554970079</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03911803517325763</v>
+        <v>0.03801128591525477</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04500047488767908</v>
+        <v>0.045899886268141</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0322270330047071</v>
+        <v>0.0321662197734017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02610490393864593</v>
+        <v>0.02599687281861638</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03149886121008689</v>
+        <v>0.03120902807684262</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01293415778885535</v>
+        <v>0.01570254383981652</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02950364940947967</v>
+        <v>0.03451480068042912</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01843411001316159</v>
+        <v>0.01875924447293511</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04036913846519392</v>
+        <v>0.04191340725407302</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08398337715343387</v>
+        <v>0.08461644616106913</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06588951202435858</v>
+        <v>0.06570696829476912</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05737568069239977</v>
+        <v>0.05652795013854581</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06601073239654548</v>
+        <v>0.06428632864505364</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06898640254965425</v>
+        <v>0.068911305408366</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05535010505045435</v>
+        <v>0.05596109761394934</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04744386055057315</v>
+        <v>0.04647056642906724</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05367033733677123</v>
+        <v>0.05378035298264709</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01753438806368559</v>
+        <v>0.01732731872158568</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.009484454992449884</v>
+        <v>0.009496713056682704</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.00935878706599785</v>
+        <v>0.009420692089813118</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0179492485701803</v>
+        <v>0.01776596438197038</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04648097057603597</v>
+        <v>0.04520035991703156</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05212931142543024</v>
+        <v>0.05194930819233877</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03529298522337236</v>
+        <v>0.03553171947270282</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04686533781530196</v>
+        <v>0.04636487943702324</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03386024879067379</v>
+        <v>0.03349822978046198</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.03206920549737703</v>
+        <v>0.03213637890365271</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02371161321864939</v>
+        <v>0.02362917550628478</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03415917591776023</v>
+        <v>0.03423883028688382</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02834498404723662</v>
+        <v>0.02804366954749951</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0183379402207212</v>
+        <v>0.01835883993933882</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01672096234272809</v>
+        <v>0.01745939097144477</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02767179435157264</v>
+        <v>0.0279013979191237</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06226267874950647</v>
+        <v>0.06048846638279007</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06860519952361653</v>
+        <v>0.06866223017774958</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0485742897700004</v>
+        <v>0.04897880903333008</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05833751780452748</v>
+        <v>0.05888692613026405</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04316077593321774</v>
+        <v>0.04315970716529956</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04187137224542844</v>
+        <v>0.04185383889554891</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0314271379619196</v>
+        <v>0.031451408850672</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.04156608425299107</v>
+        <v>0.04228405869386527</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18348</v>
+        <v>17988</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1902</v>
+        <v>1937</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1982</v>
+        <v>2098</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6325</v>
+        <v>6964</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8579</v>
+        <v>8019</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12114</v>
+        <v>12845</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5062</v>
+        <v>5280</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15940</v>
+        <v>16471</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>31600</v>
+        <v>30063</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>16868</v>
+        <v>17065</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9415</v>
+        <v>9052</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>26553</v>
+        <v>26450</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>41942</v>
+        <v>40724</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13051</v>
+        <v>12952</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11987</v>
+        <v>11917</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20295</v>
+        <v>20441</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23096</v>
+        <v>23024</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30108</v>
+        <v>31276</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19508</v>
+        <v>18044</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>33038</v>
+        <v>33892</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>57997</v>
+        <v>56622</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>37853</v>
+        <v>39094</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26520</v>
+        <v>25528</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>48264</v>
+        <v>47215</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1804</v>
+        <v>1978</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2072</v>
+        <v>2119</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2959</v>
+        <v>3013</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7976</v>
+        <v>6940</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16883</v>
+        <v>16244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9970</v>
+        <v>10768</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8974</v>
+        <v>8903</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10309</v>
+        <v>10129</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>20686</v>
+        <v>21714</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>14918</v>
+        <v>14531</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>14546</v>
+        <v>14239</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10921</v>
+        <v>10345</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15920</v>
+        <v>16486</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11763</v>
+        <v>12648</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13167</v>
+        <v>12827</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>22898</v>
+        <v>22103</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38039</v>
+        <v>37378</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27003</v>
+        <v>27373</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19997</v>
+        <v>21407</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27918</v>
+        <v>29433</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>47325</v>
+        <v>45000</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>35979</v>
+        <v>34598</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>29504</v>
+        <v>29940</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7132</v>
+        <v>7575</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5892</v>
+        <v>5054</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1915</v>
+        <v>1379</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7321</v>
+        <v>7916</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6779</v>
+        <v>7272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5449</v>
+        <v>5360</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4122</v>
+        <v>4532</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12129</v>
+        <v>12485</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>17395</v>
+        <v>17785</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13399</v>
+        <v>13963</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8024</v>
+        <v>8071</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>22290</v>
+        <v>22513</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21896</v>
+        <v>22862</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>22273</v>
+        <v>20768</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11209</v>
+        <v>11471</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22610</v>
+        <v>24380</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21556</v>
+        <v>21155</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19607</v>
+        <v>19093</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>16798</v>
+        <v>17166</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25085</v>
+        <v>25869</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>37713</v>
+        <v>37363</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>34279</v>
+        <v>34623</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23381</v>
+        <v>24593</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>42091</v>
+        <v>41632</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11254</v>
+        <v>11591</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6476</v>
+        <v>6989</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11315</v>
+        <v>11013</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19434</v>
+        <v>19823</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>22861</v>
+        <v>22502</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>33194</v>
+        <v>32813</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22475</v>
+        <v>23007</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32701</v>
+        <v>32691</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>38100</v>
+        <v>39069</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>45538</v>
+        <v>44382</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>36958</v>
+        <v>38053</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>57697</v>
+        <v>58038</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30188</v>
+        <v>29868</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20035</v>
+        <v>21414</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29356</v>
+        <v>29398</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>41893</v>
+        <v>41321</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>44920</v>
+        <v>45601</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>59606</v>
+        <v>61022</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>46472</v>
+        <v>46476</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>52676</v>
+        <v>54148</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>67065</v>
+        <v>67303</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>78427</v>
+        <v>74037</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>67725</v>
+        <v>67199</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>86830</v>
+        <v>88111</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3772</v>
+        <v>3404</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2963</v>
+        <v>2998</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3397</v>
+        <v>3385</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8632</v>
+        <v>8682</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12916</v>
+        <v>12855</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>39136</v>
+        <v>38833</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>19819</v>
+        <v>19628</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>40609</v>
+        <v>41307</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>19222</v>
+        <v>19470</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>45285</v>
+        <v>45060</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>27029</v>
+        <v>26577</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>53030</v>
+        <v>53449</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15672</v>
+        <v>15319</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>14208</v>
+        <v>13711</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14480</v>
+        <v>14399</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22868</v>
+        <v>23748</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30774</v>
+        <v>32686</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>67964</v>
+        <v>69113</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>42232</v>
+        <v>41572</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>61064</v>
+        <v>61628</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>41098</v>
+        <v>41767</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>76667</v>
+        <v>75226</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>50983</v>
+        <v>52489</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>77403</v>
+        <v>79383</v>
       </c>
     </row>
     <row r="24">
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
@@ -2786,28 +2786,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>68085</v>
+        <v>69807</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>42656</v>
+        <v>41643</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>34509</v>
+        <v>34903</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>32976</v>
+        <v>32043</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>69614</v>
+        <v>71005</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>44186</v>
+        <v>44103</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>35742</v>
+        <v>35594</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>34026</v>
+        <v>33713</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3857</v>
+        <v>4683</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7843</v>
+        <v>9175</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5293</v>
+        <v>5387</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9577</v>
+        <v>9943</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>104875</v>
+        <v>105666</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>72825</v>
+        <v>72623</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>62082</v>
+        <v>61165</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>55647</v>
+        <v>54193</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>106719</v>
+        <v>106603</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>75890</v>
+        <v>76728</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>64959</v>
+        <v>63626</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>57976</v>
+        <v>58095</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>57323</v>
+        <v>56646</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>32383</v>
+        <v>32425</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>31686</v>
+        <v>31896</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>61763</v>
+        <v>61133</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>157018</v>
+        <v>152692</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>184325</v>
+        <v>183688</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>124641</v>
+        <v>125484</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>170236</v>
+        <v>168418</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>225079</v>
+        <v>222673</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>222888</v>
+        <v>223355</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>164021</v>
+        <v>163451</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>241623</v>
+        <v>242187</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>92665</v>
+        <v>91680</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>62612</v>
+        <v>62683</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>56613</v>
+        <v>59113</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>95218</v>
+        <v>96009</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>210331</v>
+        <v>204338</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>242582</v>
+        <v>242783</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>171545</v>
+        <v>172973</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>211908</v>
+        <v>213904</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>286902</v>
+        <v>286895</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>291016</v>
+        <v>290894</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>217392</v>
+        <v>217559</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>294016</v>
+        <v>299094</v>
       </c>
     </row>
     <row r="32">
